--- a/biology/Botanique/Prunus_africana/Prunus_africana.xlsx
+++ b/biology/Botanique/Prunus_africana/Prunus_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus africana est une espèce de plantes à fleurs de la famille des Rosaceae originaire d'Afrique.
 Il est parfois appelée « Prunier d'Afrique » mais il est plus proche du laurier-cerise que des pruniers fruitiers.
@@ -514,11 +526,13 @@
           <t>Pharmacopée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'extrait issu de l'écorce de l'arbre est commercialisé en France à la dose de 50 mg par capsule sous les noms de Tadenan (laboratoire Solvay, aujourd'hui Mylan Medical SAS) ou de Prunier d'Afrique (laboratoires Arrow).
-Ce médicament, utilisé en phytothérapie, est proposé dans le traitement des symptômes urinaires de l'hypertrophie bénigne de la prostate[1].
-L'efficacité de ce produit sur le plan clinique n'a pas été formellement démontrée et des résultats contradictoires ont été publiés. Toutefois, une méta-analyse comprenant 18 essais randomisés incluant plus de 1500 patients a montré que le médicament améliorait de façon modeste mais significative la puissance du jet urinaire, confirmant ainsi les résultats retrouvés chez l'animal[2].
+Ce médicament, utilisé en phytothérapie, est proposé dans le traitement des symptômes urinaires de l'hypertrophie bénigne de la prostate.
+L'efficacité de ce produit sur le plan clinique n'a pas été formellement démontrée et des résultats contradictoires ont été publiés. Toutefois, une méta-analyse comprenant 18 essais randomisés incluant plus de 1500 patients a montré que le médicament améliorait de façon modeste mais significative la puissance du jet urinaire, confirmant ainsi les résultats retrouvés chez l'animal.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pygeum africanum Hook.f.</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Composants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante renferme une fraction lipidique à acides gras en C12 - C24 ; elle contient des phytostérols (campestérol, bêta-sistérol), des acides triterpéniques pentacycliques (acide ursolique, acide oléanolique... ), des alcanols linéaires.
 </t>
@@ -608,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ne pas utiliser chez la femme enceinte ou allaitante.
